--- a/Experiments/230131_module1/combined_sp_updated.xlsx
+++ b/Experiments/230131_module1/combined_sp_updated.xlsx
@@ -1031,7 +1031,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>57.0,</t>
+          <t>56.75,</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1327.725,2000.0,</t>
+          <t>1327.975,2000.0,</t>
         </is>
       </c>
     </row>

--- a/Experiments/230131_module1/combined_sp_updated.xlsx
+++ b/Experiments/230131_module1/combined_sp_updated.xlsx
@@ -1223,7 +1223,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1327.975,2000.0,</t>
+          <t>1337.975,2000.0,</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40.0,55.0,</t>
+          <t>30.0,55.0,</t>
         </is>
       </c>
     </row>
